--- a/understanding_test_flow_from_start_to_finish/10_不具合報告書(トップページ).xlsx
+++ b/understanding_test_flow_from_start_to_finish/10_不具合報告書(トップページ).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E07E12A-B20E-4645-A029-033784576A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631C2CE3-3B8A-4A4E-81E3-A72E947B464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{94C50201-1EF2-F647-8FC5-6329C3FBAAC8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{94C50201-1EF2-F647-8FC5-6329C3FBAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="不具合" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>期待動作</t>
     <rPh sb="0" eb="4">
@@ -102,21 +102,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. トップページを表示する
-2. [部品番号1-1-2]Homeをクリックする</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
+    <t>反応しない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハンノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページを再表示すること
+ページ表示の際にスクロール位置が先頭になっていること</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【ページ名】
 トップページ
 【部品番号】
-1-1-2
+F-1-1-2
 【事象詳細】
 ヘッダーのHomeをクリックしても反応しない
 【その他】
@@ -127,39 +128,39 @@
     <rPh sb="18" eb="20">
       <t xml:space="preserve">バンゴウ </t>
     </rPh>
-    <rPh sb="30" eb="34">
+    <rPh sb="32" eb="36">
       <t xml:space="preserve">ジショウショウサイ </t>
     </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="55" eb="57">
       <t xml:space="preserve">ハンノウ </t>
     </rPh>
-    <rPh sb="63" eb="64">
+    <rPh sb="65" eb="66">
       <t xml:space="preserve">タ </t>
     </rPh>
-    <rPh sb="87" eb="89">
+    <rPh sb="89" eb="91">
       <t xml:space="preserve">モンダイ </t>
     </rPh>
-    <rPh sb="91" eb="93">
+    <rPh sb="93" eb="95">
       <t xml:space="preserve">ドウサ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反応しない</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ハンノウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページを再表示すること
-ページ表示の際にスクロール位置が先頭になっていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページのメイン画像内のCoffeeのスペルが間違っている</t>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">マチガッテイル </t>
+    <t>1. トップページを表示する
+2. [部品番号F-1-1-2]Homeをクリックする</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ブヒン </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューページを表示すること
+スクロール位置がF-2-4-2(メニュー詳細_Coffee menu)になっていること</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">イチ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -167,10 +168,150 @@
     <t>【ページ名】
 トップページ
 【部品番号】
-1-2
+F-1-4-2
 【事象詳細】
-natural organic cofee
-の「coffee」のスペルが間違っている
+クリックするとトップページを再表示する
+【その他】
+F-1-4-1は問題なく動作している</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ブヒン </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t xml:space="preserve">ジショウショウサイ </t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>サイヒョウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t xml:space="preserve">タ </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのコーヒーメニューの「詳しく見る」ボタンをクリックした際にトップページを再表示している</t>
+  </si>
+  <si>
+    <t>トップページを再表示する</t>
+  </si>
+  <si>
+    <t>トップページを再表示する</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのフッターのMenu、Contactをクリックしてもトップページを再表示している</t>
+    <rPh sb="39" eb="42">
+      <t xml:space="preserve">サイヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューページ、問い合わせフォームページを表示すること</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">トイアワセ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ページ名】
+トップページ
+【部品番号】
+F-1-7-2
+F-1-7-3
+【事象詳細】
+トップページのフッターのMenu、Contactをクリックしてもトップページを再表示している
+【その他】
+DICアイコン、Homeは問題なく動作している</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ブヒン </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t xml:space="preserve">ジショウショウサイ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12
+13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのメニューに使われている文言が仕様と異なる</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ツカワレテイル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シヨウトコトナル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのメイン画像（大）内のCoffeeのスペルが間違っている</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">マチガッテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ページ名】
+トップページ
+【部品番号】
+M-1-4-1
+M-1-4-2
+【事象詳細】
+トップページのメニューのタイトルが「MENU」となっており、パンケーキメニューのタイトルが「Recommended menu」となっている
+【その他】
+特になし</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ブヒン </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t xml:space="preserve">ジショウショウサイ </t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t xml:space="preserve">トクニナシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ページ名】
+トップページ
+【部品番号】
+M-1-2-1
+【事象詳細】
+natural organic cofeeと表示され「coffee」のスペルが間違っている
 【その他】
 これ以外のCoffeeのスペルは問題ない</t>
     <rPh sb="16" eb="18">
@@ -185,42 +326,86 @@
     <rPh sb="53" eb="55">
       <t xml:space="preserve">ハンノウ </t>
     </rPh>
-    <rPh sb="100" eb="102">
+    <rPh sb="60" eb="62">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
       <t xml:space="preserve">モンダイ タ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. トップページを表示する
-2. [部品番号1-2]メイン画像（大）内のcoffeeの文言を確認する</t>
-    <rPh sb="19" eb="21">
+    <t>トップページのメニュー内のストロベリーパンケーキがブルーベリーパンケーキと表示されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルーベリーパンケーキと表示されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストロベリーパンケーキと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ページ名】
+トップページ
+【部品番号】
+M-1-4-6
+【事象詳細】
+トップページのメニュー内のストロベリーパンケーキがブルーベリーパンケーキと表示されている
+【その他】
+特になし</t>
+    <rPh sb="16" eb="18">
       <t xml:space="preserve">ブヒン </t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="18" eb="20">
       <t xml:space="preserve">バンゴウ </t>
     </rPh>
-    <rPh sb="33" eb="34">
-      <t xml:space="preserve">ダイ </t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t xml:space="preserve">カクニン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スペルが間違っている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正しいスペルで表示されること</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">タダシイ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ヒョウジ </t>
+    <rPh sb="30" eb="34">
+      <t xml:space="preserve">ジショウショウサイ </t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t xml:space="preserve">トクニナシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIC Coffee
+natural organic cofee
+と表示されている</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M-1-4-1の文言が「Recommended menu」と表示されること
+M-1-4-2の文言が「Pancakes」と表示されること</t>
+    <rPh sb="30" eb="32">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M-1-4-1の文言が「MENU」と表示されている
+M-1-4-2の文言が「Recommended menu」と表示されている</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIC Coffee
+natural organic coffee
+と表示されること</t>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -235,10 +420,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>画像が表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウガヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【ページ名】
 トップページ
 【部品番号】
-1-3
+C-1-3-2
 【事象詳細】
 トップページのコンセプトの画像が表示されていない
 【その他】
@@ -258,320 +450,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>C-1-3-2が正しい位置に表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22
+23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1. トップページを表示する
-2. [部品番号1-3]コンセプトの画像を確認する</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">カクニンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像が表示されていない</t>
+2. [部品番号F-1-4-2]詳しく見るをクリックする</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヒダリ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>クワシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. トップページを表示する
+2. [部品番号F-1-7-2]Menu、または[部品番号F-1-7-3]Contactをクリックする</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヒダリ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">ウエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. トップページを表示する
+2. [部品番号M-1-2-1]メイン画像（大）の文言を確認する</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヒダリ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">モンゴン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. トップページを表示する
+2. [部品番号M-1-4-1]及び[部品番号M-1-4-2]メニューの文言を確認する</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヒダリ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">モンゴン </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. トップページを表示する
+2. [部品番号M-1-4-6]ストロベリーパンケーキの文言を確認する</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヒダリ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">モンゴン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. トップページを表示する
+2. [部品番号C-1-3-2]コンセプトの表示を確認する</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガゾウガヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像が表示されること</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページのメニューに使われている文言が仕様と異なる</t>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">ツカワレテイル </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シヨウトコトナル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ページ名】
-トップページ
-【部品番号】
-1-4
-【事象詳細】
-トップページのメニューのタイトルが「MENU」となっており、パンケーキメニューのタイトルが「Recommended menu」となっている
-【その他】
-特になし</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t xml:space="preserve">ジショウショウサイ </t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t xml:space="preserve">トクニナシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. トップページを表示する
-2. [部品番号1-4]メニューの文言を確認する</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">モンゴン </t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t xml:space="preserve">カクニンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューのタイトルが「MENU」となっている
-パンケーキメニューのタイトルが「Recommended menu」となっている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューのタイトルが「Recommended menu」となり、
-パンケーキメニューのタイトルが「Pancakes」となること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページのコーヒーメニューに4つのメニューが表示されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ページ名】
-トップページ
-【部品番号】
-1-4
-【事象詳細】
-トップページのメニューのコーヒーメニューに4つのメニューが表示されている
-【その他】
-特になし</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t xml:space="preserve">ジショウショウサイ </t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. トップページを表示する
-2. [部品番号1-4]コーヒーメニューの画像を確認する</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t xml:space="preserve">カクニンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページのメニュー内のストロベリーパンケーキがブルーベリーパンケーキと表示されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ページ名】
-トップページ
-【部品番号】
-1-4
-【事象詳細】
-トップページのメニュー内のストロベリーパンケーキがブルーベリーパンケーキと表示されている
-【その他】
-特になし</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t xml:space="preserve">ジショウショウサイ </t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t xml:space="preserve">トクニナシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. トップページを表示する
-2. [部品番号1-4]ストロベリーパンケーキの文言を確認する</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t xml:space="preserve">モンゴン </t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t xml:space="preserve">カクニンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブルーベリーパンケーキと表示されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ストロベリーパンケーキと表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4つのコーヒーメニューが表示されている</t>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示されるべきコーヒーメニューがブレンドコーヒーとアートラテの2つとなること</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページのコーヒーメニューの「詳しく見る」ボタンをクリックした際にトップページを再表示している</t>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">クワシクミル </t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t xml:space="preserve">サイヒョウジス </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ページ名】
-トップページ
-【部品番号】
-1-4-2
-【事象詳細】
-トップページのコーヒーメニューの「詳しく見る」ボタンをクリックした際、トップページを再表示している
-【その他】
-特になし</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t xml:space="preserve">ジショウショウサイ </t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. トップページを表示する
-2. [部品番号1-4-2]詳しく見るをクリックする</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t xml:space="preserve">クワシクミル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページを再表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューページを表示し、スクロール位置がCoffee menuになること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19
-20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページのフッターのMenu、Contactをクリックしてもトップページを再表示している</t>
-    <rPh sb="39" eb="42">
-      <t xml:space="preserve">サイヒョウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ページ名】
-トップページ
-【部品番号】
-1-6-2
-1-6-3
-【事象詳細】
-トップページのフッターのMenu、Contactをクリックしてもトップページを再表示している
-【その他】
-DICアイコン、Homeは問題なく動作している</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t xml:space="preserve">ジショウショウサイ </t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t xml:space="preserve">モンダイ </t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t xml:space="preserve">ドウサ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. トップページを表示する
-2. [部品番号1-6-2]Menu、または[部品番号1-6-3]Contactをクリックする</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ブヒン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">バンゴウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューページ、問い合わせフォームページを表示すること</t>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">トイアワセ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジョウゲ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t xml:space="preserve">ヒョウジ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -584,6 +538,27 @@
     <t>開発コメント</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">カイハツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正確認結果</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">シュウセイケッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正確認日</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シュウセイカクニンビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正確認者</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シュウセイカクニンシャ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -616,23 +591,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正確認結果</t>
-    <rPh sb="0" eb="6">
-      <t xml:space="preserve">シュウセイケッカ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正確認日</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">シュウセイカクニンビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正確認者</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">シュウセイカクニンシャ </t>
+    <t>修正しました。
+(2024/4/3 開発一郎)</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シュウセイシマシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッターのリンク設定ミスでした。
+修正しました
+(2024/4/3 開発一郎)</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">シュウセイシマシタ カイハツ イチロウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,6 +641,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>指摘の通り修正しました
+(2024/4/4 開発一郎)
+すみません制作側と会話して仕様が変更になった箇所です。テスト担当の方の指摘が正しいので修正お願いできますでしょうか。
+(2024/4/3 デザイン二郎)
+パンケーキのところに「Recommended menu」と出すという話になっていませんでしたか？デザイン側で確認してください。
+(2024/4/3 開発一郎)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シテキ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シュウセイシマシタ </t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">セイサクガワ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カショ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">タントウ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">シテキ </t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t xml:space="preserve">タダシイ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t xml:space="preserve">ジロウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディングミスです。修正しました。
+(2024/4/3 開発一郎)</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シュウセイシマシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>画像のファイル名不備でした。修正しました。
 (2024/4/3 開発一郎)</t>
     <rPh sb="0" eb="2">
@@ -686,150 +710,6 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t xml:space="preserve">イチロウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘の通り修正しました
-(2024/4/4 開発一郎)
-すみません制作側と会話して仕様が変更になった箇所です。テスト担当の方の指摘が正しいので修正お願いできますでしょうか。
-(2024/4/3 デザイン二郎)
-当初パンケーキのところに「Recommended menu」と出すという話になっていませんでしたか？デザイン側で確認してください。
-(2024/4/3 開発一郎)</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シテキ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">シュウセイシマシタ </t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t xml:space="preserve">セイサクガワ </t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t xml:space="preserve">ヘンコウ </t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t xml:space="preserve">カショ </t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t xml:space="preserve">タントウ </t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t xml:space="preserve">シテキ </t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t xml:space="preserve">タダシイ </t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t xml:space="preserve">ジロウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディングミスです。修正しました。
-(2024/4/3 開発一郎)</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">シュウセイシマシタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正しました。
-(2024/4/3 開発一郎)</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">シュウセイシマシタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フッターのリンク設定ミスでした。
-修正しました
-(2024/4/3 開発一郎)</t>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">シュウセイシマシタ </t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t xml:space="preserve">カイハツ </t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t xml:space="preserve">イチロウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確かにここは4つ出して欲しいという要望が出ておりました。
-修正した画面仕様書を展開します。現在の動きで問題なしとなりますので、お手数ですがテストチームにてテストケースへの反映と再テストをお願いできますでしょうか。
-(2024/4/4 仕様太郎)
-確認します
-(2024/4/4 仕様太郎)
-4つ出してほしいという話になっていた認識です。
-仕様があってるのか確認してもらえますか？
-(2024/4/3 開発一郎)</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">タシカニ </t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">ダシテホシイ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">ヨウボウ </t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t xml:space="preserve">デテオリマシタ </t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t xml:space="preserve">タントウシャ </t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t xml:space="preserve">ガメン </t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t xml:space="preserve">シヨウショ </t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t xml:space="preserve">テンカイ </t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t xml:space="preserve">ゲンザイ </t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t xml:space="preserve">サイジッシ </t>
-    </rPh>
-    <rPh sb="108" eb="112">
-      <t xml:space="preserve">シヨウタロウ </t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t xml:space="preserve">ダシテホシイ </t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t xml:space="preserve">タロウ </t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t xml:space="preserve">ハナシン </t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t xml:space="preserve">ニンシキデウス </t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t xml:space="preserve">シヨウガ </t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t xml:space="preserve">カクニン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,7 +718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -857,6 +737,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -891,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -918,8 +805,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -947,40 +849,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -991,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,37 +879,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1386,10 +1255,10 @@
     <col min="1" max="1" width="10.7109375" style="1"/>
     <col min="2" max="6" width="38.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="4"/>
-    <col min="8" max="8" width="10.7109375" style="1"/>
-    <col min="9" max="9" width="45.42578125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="53" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1418,294 +1287,278 @@
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="252">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9">
-        <v>6</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="252">
-      <c r="A6" s="5">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="231">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9">
-        <v>9</v>
-      </c>
-      <c r="H6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="252">
-      <c r="A7" s="5">
+      <c r="I6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="273">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="294">
-      <c r="A8" s="5">
+      <c r="I7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="252">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6">
+        <v>19</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="315">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="273">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9">
-        <v>11</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="273">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="9">
-        <v>11</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="273">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="252">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="9">
-        <v>11</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="G11" s="6">
+        <v>55</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="273">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="9">
-        <v>13</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="273">
-      <c r="A12" s="5">
+      <c r="I11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="3"/>
@@ -1713,13 +1566,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3"/>
@@ -1728,13 +1581,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
@@ -1743,13 +1596,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3"/>
@@ -1758,13 +1611,13 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3"/>
@@ -1773,13 +1626,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -1788,13 +1641,13 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3"/>
@@ -1803,13 +1656,13 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3"/>
@@ -1818,13 +1671,13 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3"/>
@@ -1833,13 +1686,13 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3"/>
@@ -1848,33 +1701,33 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="21" thickBot="1">
+      <c r="G22" s="6"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H23" xr:uid="{DD3CE190-7F68-4A41-A524-D58AA8CB4A92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H23" xr:uid="{D8C6D11D-11CE-9541-8A88-09473A726139}">
       <formula1>"修正済み,完了,確認結果NG"</formula1>
     </dataValidation>
   </dataValidations>
